--- a/Current_Warnings.xlsx
+++ b/Current_Warnings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,27 +466,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wind Advisory</t>
+          <t>High Wind Watch</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>WI.Y</t>
+          <t>HW.A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>KBUF</t>
+          <t>KBYZ</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-02-16 09:00:00.000</t>
+          <t>2022-02-19 07:00:00.000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>tan</t>
+          <t>darkgoldenrod</t>
         </is>
       </c>
     </row>
@@ -496,27 +496,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wind Advisory</t>
+          <t>High Wind Watch</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>WI.Y</t>
+          <t>HW.A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>KCLE</t>
+          <t>KBYZ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-02-16 09:00:00.000</t>
+          <t>2022-02-19 10:00:00.000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>tan</t>
+          <t>darkgoldenrod</t>
         </is>
       </c>
     </row>
@@ -526,27 +526,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Small Craft Advisory</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SC.Y</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>KLWX</t>
+          <t>KBUF</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2022-02-16 15:00:00.000</t>
+          <t>2022-02-19 06:00:00.000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>thistle</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -556,27 +556,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Flood Watch</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FA.A</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>KCLE</t>
+          <t>KBUF</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2022-02-17 00:00:00.000</t>
+          <t>2022-02-19 06:00:00.000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>seagreen</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -586,27 +586,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Wind Advisory</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>WI.Y</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>KILN</t>
+          <t>KBUF</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2022-02-16 09:00:00.000</t>
+          <t>2022-02-19 06:00:00.000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>tan</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -616,27 +616,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Wind Advisory</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>WI.Y</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>KILN</t>
+          <t>KLWX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2022-02-16 12:00:00.000</t>
+          <t>2022-02-19 18:00:00.000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>tan</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -646,27 +646,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Wind Advisory</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>WI.Y</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>KLMK</t>
+          <t>KLWX</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2022-02-16 12:00:00.000</t>
+          <t>2022-02-19 18:00:00.000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>tan</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>KCAR</t>
+          <t>KLWX</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2022-02-16 21:00:00.000</t>
+          <t>2022-02-19 18:00:00.000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -706,27 +706,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Gale Warning</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>GL.W</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>KCAR</t>
+          <t>KMQT</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2022-02-16 21:00:00.000</t>
+          <t>2022-02-18 20:00:00.000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>#dda0dd</t>
         </is>
       </c>
     </row>
@@ -736,27 +736,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Winter Weather Advisory</t>
+          <t>Gale Warning</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>WW.Y</t>
+          <t>GL.W</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>KMSO</t>
+          <t>KMQT</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2022-02-16 06:00:00.000</t>
+          <t>2022-02-18 18:00:00.000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>#7b68ee</t>
+          <t>#dda0dd</t>
         </is>
       </c>
     </row>
@@ -766,27 +766,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Winter Weather Advisory</t>
+          <t>Gale Warning</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>WW.Y</t>
+          <t>GL.W</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>KMSO</t>
+          <t>KMQT</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2022-02-16 06:00:00.000</t>
+          <t>2022-02-18 18:00:00.000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>#7b68ee</t>
+          <t>#dda0dd</t>
         </is>
       </c>
     </row>
@@ -796,27 +796,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Winter Weather Advisory</t>
+          <t>Gale Warning</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>WW.Y</t>
+          <t>GL.W</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>KMSO</t>
+          <t>KMQT</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2022-02-16 06:00:00.000</t>
+          <t>2022-02-18 18:00:00.000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>#7b68ee</t>
+          <t>#dda0dd</t>
         </is>
       </c>
     </row>
@@ -826,27 +826,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Winter Weather Advisory</t>
+          <t>Gale Warning</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>WW.Y</t>
+          <t>GL.W</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>KMSO</t>
+          <t>KMQT</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2022-02-16 06:00:00.000</t>
+          <t>2022-02-18 22:00:00.000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>#7b68ee</t>
+          <t>#dda0dd</t>
         </is>
       </c>
     </row>
@@ -856,27 +856,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Winter Weather Advisory</t>
+          <t>Gale Warning</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>WW.Y</t>
+          <t>GL.W</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>KMSO</t>
+          <t>KMQT</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2022-02-16 06:00:00.000</t>
+          <t>2022-02-19 00:00:00.000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>#7b68ee</t>
+          <t>#dda0dd</t>
         </is>
       </c>
     </row>
@@ -886,27 +886,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Winter Weather Advisory</t>
+          <t>Gale Warning</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>WW.Y</t>
+          <t>GL.W</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>KMSO</t>
+          <t>KDLH</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2022-02-16 06:00:00.000</t>
+          <t>2022-02-18 22:00:00.000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>#7b68ee</t>
+          <t>#dda0dd</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Winter Weather Advisory</t>
+          <t>Gale Warning</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>WW.Y</t>
+          <t>GL.W</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>KMSO</t>
+          <t>KMQT</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2022-02-16 06:00:00.000</t>
+          <t>2022-02-18 18:00:00.000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>#7b68ee</t>
+          <t>#dda0dd</t>
         </is>
       </c>
     </row>
@@ -946,27 +946,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Winter Weather Advisory</t>
+          <t>Gale Warning</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>WW.Y</t>
+          <t>GL.W</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>KMSO</t>
+          <t>KMQT</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2022-02-16 06:00:00.000</t>
+          <t>2022-02-18 18:00:00.000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>#7b68ee</t>
+          <t>#dda0dd</t>
         </is>
       </c>
     </row>
@@ -976,27 +976,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Wind Advisory</t>
+          <t>Gale Warning</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>WI.Y</t>
+          <t>GL.W</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>KJKL</t>
+          <t>KMQT</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2022-02-16 14:00:00.000</t>
+          <t>2022-02-18 22:00:00.000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>tan</t>
+          <t>#dda0dd</t>
         </is>
       </c>
     </row>
@@ -1006,27 +1006,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Gale Warning</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>GL.W</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>KDTX</t>
+          <t>KMQT</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2022-02-16 03:00:00.000</t>
+          <t>2022-02-18 22:00:00.000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>#dda0dd</t>
         </is>
       </c>
     </row>
@@ -1036,27 +1036,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Gale Warning</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>GL.W</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>KMKX</t>
+          <t>KMQT</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 00:00:00.000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>#dda0dd</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>KMKX</t>
+          <t>KDTX</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-18 21:00:00.000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>KAPX</t>
+          <t>KDTX</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 03:00:00.000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1136,12 +1136,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>KAPX</t>
+          <t>KDTX</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2022-02-16 03:00:00.000</t>
+          <t>2022-02-19 03:00:00.000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1166,12 +1166,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>KLOT</t>
+          <t>KDTX</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-18 21:00:00.000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>KGRB</t>
+          <t>KDLH</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-18 22:00:00.000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1226,12 +1226,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>KEKA</t>
+          <t>KDLH</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-18 22:00:00.000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1246,27 +1246,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>High Wind Watch</t>
+          <t>Flood Watch</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HW.A</t>
+          <t>FL.A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>KMAF</t>
+          <t>KPBZ</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2022-02-16 12:00:00.000</t>
+          <t>2022-02-18 19:30:00.000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>darkgoldenrod</t>
+          <t>seagreen</t>
         </is>
       </c>
     </row>
@@ -1276,27 +1276,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Flood Watch</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>FL.A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>KGRR</t>
+          <t>KPBZ</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 09:36:00.000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>seagreen</t>
         </is>
       </c>
     </row>
@@ -1306,27 +1306,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Small Craft Advisory</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SC.Y</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>KTAE</t>
+          <t>KIND</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2022-02-16 03:00:00.000</t>
+          <t>2022-02-18 20:38:00.000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>thistle</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -1336,27 +1336,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>KAPX</t>
+          <t>KIND</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-18 21:36:00.000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -1366,27 +1366,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>KAPX</t>
+          <t>KIND</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2022-02-16 03:00:00.000</t>
+          <t>2022-02-18 23:30:00.000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fire Weather Watch</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>FW.A</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>KMAF</t>
+          <t>KIWX</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2022-02-16 17:00:00.000</t>
+          <t>2022-02-18 17:36:00.000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>navajowhite</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -1426,27 +1426,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fire Weather Watch</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>FW.A</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>KMAF</t>
+          <t>KIWX</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2022-02-16 17:00:00.000</t>
+          <t>2022-02-19 00:00:00.000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>navajowhite</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -1456,27 +1456,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fire Weather Watch</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>FW.A</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>KMAF</t>
+          <t>KILN</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2022-02-16 17:00:00.000</t>
+          <t>2022-02-19 00:12:00.000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>navajowhite</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -1486,27 +1486,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>KLOT</t>
+          <t>KIWX</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-18 18:00:00.000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -1516,27 +1516,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Flood Watch</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>FL.A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>KGRB</t>
+          <t>KPBZ</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 06:00:00.000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>seagreen</t>
         </is>
       </c>
     </row>
@@ -1546,27 +1546,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fire Weather Watch</t>
+          <t>Flood Watch</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>FW.A</t>
+          <t>FL.A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>KABQ</t>
+          <t>KPBZ</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2022-02-16 18:00:00.000</t>
+          <t>2022-02-19 10:00:00.000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>navajowhite</t>
+          <t>seagreen</t>
         </is>
       </c>
     </row>
@@ -1576,27 +1576,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Flood Watch</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>FL.A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>KMKX</t>
+          <t>KPBZ</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 12:00:00.000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>seagreen</t>
         </is>
       </c>
     </row>
@@ -1606,27 +1606,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Flood Watch</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>FL.A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>KMKX</t>
+          <t>KPBZ</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 02:40:00.000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>seagreen</t>
         </is>
       </c>
     </row>
@@ -1636,27 +1636,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Gale Warning</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>GL.W</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>KMKX</t>
+          <t>KMQT</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-18 18:00:00.000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>#dda0dd</t>
         </is>
       </c>
     </row>
@@ -1666,27 +1666,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Small Craft Advisory</t>
+          <t>Gale Warning</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SC.Y</t>
+          <t>GL.W</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>KMOB</t>
+          <t>KMQT</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2022-02-16 03:00:00.000</t>
+          <t>2022-02-18 18:00:00.000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>thistle</t>
+          <t>#dda0dd</t>
         </is>
       </c>
     </row>
@@ -1696,27 +1696,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hazardous Seas Watch</t>
+          <t>Gale Warning</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SE.A</t>
+          <t>GL.W</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>KMFR</t>
+          <t>KMQT</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-18 22:00:00.000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>darkslateblue</t>
+          <t>#dda0dd</t>
         </is>
       </c>
     </row>
@@ -1726,12 +1726,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Gale Warning</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>GL.W</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1741,12 +1741,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-18 22:00:00.000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>#dda0dd</t>
         </is>
       </c>
     </row>
@@ -1756,27 +1756,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Gale Warning</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>GL.W</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>KEKA</t>
+          <t>KMQT</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 00:00:00.000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>#dda0dd</t>
         </is>
       </c>
     </row>
@@ -1786,27 +1786,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>KEKA</t>
+          <t>KDLH</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-18 22:00:00.000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -1816,27 +1816,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>KEKA</t>
+          <t>KPBZ</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 00:00:00.000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -1846,27 +1846,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>KEKA</t>
+          <t>KIND</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-18 21:00:00.000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Hazardous Seas Watch</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SE.A</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>KMFR</t>
+          <t>KIND</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2022-02-16 03:00:00.000</t>
+          <t>2022-02-18 22:30:00.000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>darkslateblue</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -1906,27 +1906,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>KDTX</t>
+          <t>KIND</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2022-02-16 03:00:00.000</t>
+          <t>2022-02-19 01:30:00.000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -1936,27 +1936,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>KMQT</t>
+          <t>KIND</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 04:54:00.000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -1966,27 +1966,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>KAPX</t>
+          <t>KIWX</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-18 18:00:00.000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -1996,27 +1996,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>KAPX</t>
+          <t>KIWX</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2022-02-16 03:00:00.000</t>
+          <t>2022-02-19 00:00:00.000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -2026,27 +2026,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>KGRB</t>
+          <t>KPAH</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 18:00:00.000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -2066,12 +2066,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>KLOT</t>
+          <t>KLWX</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 18:00:00.000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2096,12 +2096,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>KGRR</t>
+          <t>KLWX</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 18:00:00.000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2116,27 +2116,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>KMKX</t>
+          <t>KBUF</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-18 19:12:00.000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -2146,27 +2146,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Flood Watch</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>FL.A</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>KMKX</t>
+          <t>KLOT</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 12:00:00.000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>seagreen</t>
         </is>
       </c>
     </row>
@@ -2176,27 +2176,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>KMKX</t>
+          <t>KPAH</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 18:00:00.000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -2206,27 +2206,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>KEKA</t>
+          <t>KIND</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 04:54:00.000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -2236,27 +2236,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>KEKA</t>
+          <t>KCLE</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-18 19:38:00.000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -2266,27 +2266,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Small Craft Advisory</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SC.Y</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>KMOB</t>
+          <t>KDLH</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2022-02-16 03:00:00.000</t>
+          <t>2022-02-18 22:00:00.000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>thistle</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -2296,27 +2296,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Small Craft Advisory</t>
+          <t>Gale Warning</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SC.Y</t>
+          <t>GL.W</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>KJAX</t>
+          <t>KDLH</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2022-02-16 03:00:00.000</t>
+          <t>2022-02-18 22:00:00.000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>thistle</t>
+          <t>#dda0dd</t>
         </is>
       </c>
     </row>
@@ -2326,27 +2326,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Wind Advisory</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>WI.Y</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>KBTV</t>
+          <t>KBUF</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2022-02-16 15:00:00.000</t>
+          <t>2022-02-19 06:00:00.000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>tan</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>KBOX</t>
+          <t>KBUF</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2022-02-16 18:00:00.000</t>
+          <t>2022-02-19 06:00:00.000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -2396,12 +2396,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>KBOX</t>
+          <t>KBUF</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2022-02-16 18:00:00.000</t>
+          <t>2022-02-19 06:00:00.000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2416,27 +2416,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Small Craft Advisory</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SC.Y</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>TJSJ</t>
+          <t>KIWX</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2022-02-16 18:00:00.000</t>
+          <t>2022-02-19 06:00:00.000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>thistle</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -2446,27 +2446,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>KBOX</t>
+          <t>KIWX</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2022-02-16 18:00:00.000</t>
+          <t>2022-02-19 06:00:00.000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>KBOX</t>
+          <t>KDTX</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2022-02-16 18:00:00.000</t>
+          <t>2022-02-19 03:00:00.000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2506,27 +2506,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Flood Watch</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>FA.A</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>KIND</t>
+          <t>KDTX</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2022-02-17 00:00:00.000</t>
+          <t>2022-02-18 21:00:00.000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>seagreen</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -2546,12 +2546,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>KAPX</t>
+          <t>KDTX</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-18 21:00:00.000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2566,27 +2566,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>KAPX</t>
+          <t>KDTX</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 03:00:00.000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -2606,12 +2606,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>KAPX</t>
+          <t>KDTX</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2022-02-16 03:00:00.000</t>
+          <t>2022-02-18 21:00:00.000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2626,27 +2626,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>Wind Advisory</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>WI.Y</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>KAPX</t>
+          <t>KABR</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2022-02-16 03:00:00.000</t>
+          <t>2022-02-18 18:00:00.000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
+          <t>tan</t>
         </is>
       </c>
     </row>
@@ -2656,27 +2656,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>Winter Weather Advisory</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>WW.Y</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>KGYX</t>
+          <t>KMQT</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2022-02-16 18:00:00.000</t>
+          <t>2022-02-18 18:00:00.000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
+          <t>#7b68ee</t>
         </is>
       </c>
     </row>
@@ -2686,27 +2686,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>KGYX</t>
+          <t>KPHI</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2022-02-16 18:00:00.000</t>
+          <t>2022-02-19 18:00:00.000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -2716,27 +2716,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>KGYX</t>
+          <t>KPHI</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2022-02-16 18:00:00.000</t>
+          <t>2022-02-19 18:00:00.000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -2746,27 +2746,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Flood Watch</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>FA.A</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>KIWX</t>
+          <t>KPHI</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2022-02-17 00:00:00.000</t>
+          <t>2022-02-19 18:00:00.000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>seagreen</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -2776,27 +2776,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Small Craft Advisory</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SC.Y</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>KMLB</t>
+          <t>KIND</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2022-02-16 03:00:00.000</t>
+          <t>2022-02-18 22:30:00.000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>thistle</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -2806,27 +2806,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Small Craft Advisory</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SC.Y</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>KMLB</t>
+          <t>KIND</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2022-02-16 03:00:00.000</t>
+          <t>2022-02-19 01:30:00.000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>thistle</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -2836,27 +2836,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Small Craft Advisory</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SC.Y</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>KMLB</t>
+          <t>KIND</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2022-02-16 12:00:00.000</t>
+          <t>2022-02-18 21:00:00.000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>thistle</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -2866,27 +2866,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>KMKX</t>
+          <t>KIND</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 04:54:00.000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -2896,27 +2896,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>KMKX</t>
+          <t>KIWX</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-18 18:00:00.000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -2926,27 +2926,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>KMKX</t>
+          <t>KIWX</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 00:00:00.000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -2956,27 +2956,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>KMKX</t>
+          <t>KIWX</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 06:00:00.000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -2986,27 +2986,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>KMKX</t>
+          <t>KIWX</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 06:00:00.000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -3016,27 +3016,27 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>Wind Advisory</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>WI.Y</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>KMKX</t>
+          <t>KMPX</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-18 18:00:00.000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
+          <t>tan</t>
         </is>
       </c>
     </row>
@@ -3046,27 +3046,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Flood Watch</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>FA.A</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>KILX</t>
+          <t>KAPX</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2022-02-17 00:00:00.000</t>
+          <t>2022-02-18 21:00:00.000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>seagreen</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -3076,27 +3076,27 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>KIWX</t>
+          <t>KAPX</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-18 21:00:00.000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -3106,27 +3106,27 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Wind Advisory</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>WI.Y</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>KGRR</t>
+          <t>KFSD</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-18 18:00:00.000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>tan</t>
         </is>
       </c>
     </row>
@@ -3136,27 +3136,27 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>KGRR</t>
+          <t>KILN</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-18 21:17:00.000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -3166,27 +3166,27 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Winter Weather Advisory</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>WW.Y</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>KCAR</t>
+          <t>KAPX</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2022-02-16 21:00:00.000</t>
+          <t>2022-02-18 18:00:00.000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>#7b68ee</t>
         </is>
       </c>
     </row>
@@ -3196,27 +3196,27 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>High Wind Watch</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>HW.A</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>KCAR</t>
+          <t>KTFX</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2022-02-16 21:00:00.000</t>
+          <t>2022-02-19 09:00:00.000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>darkgoldenrod</t>
         </is>
       </c>
     </row>
@@ -3226,27 +3226,27 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>High Wind Watch</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>HW.A</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>KMQT</t>
+          <t>KTFX</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 16:00:00.000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>darkgoldenrod</t>
         </is>
       </c>
     </row>
@@ -3256,27 +3256,27 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>KMQT</t>
+          <t>KLOT</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-18 20:00:00.000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -3286,27 +3286,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Flood Watch</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>FA.A</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>KLOT</t>
+          <t>KIWX</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2022-02-17 00:00:00.000</t>
+          <t>2022-02-18 18:00:00.000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>seagreen</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -3316,27 +3316,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Wind Advisory</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>WI.Y</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>KDTX</t>
+          <t>KUNR</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2022-02-16 03:00:00.000</t>
+          <t>2022-02-18 18:00:00.000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>tan</t>
         </is>
       </c>
     </row>
@@ -3346,27 +3346,27 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>KDTX</t>
+          <t>KPAH</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2022-02-16 06:00:00.000</t>
+          <t>2022-02-19 23:24:00.000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -3376,27 +3376,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>Flood Watch</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>FL.A</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>KDTX</t>
+          <t>KPBZ</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2022-02-16 03:00:00.000</t>
+          <t>2022-02-18 19:30:00.000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>seagreen</t>
         </is>
       </c>
     </row>
@@ -3406,27 +3406,27 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>Flood Warning</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>FL.W</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>KDTX</t>
+          <t>KPAH</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2022-02-16 06:00:00.000</t>
+          <t>2022-02-19 23:24:00.000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
+          <t>green</t>
         </is>
       </c>
     </row>
@@ -3436,27 +3436,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>Flood Watch</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>FL.A</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>KDTX</t>
+          <t>KPBZ</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2022-02-16 06:00:00.000</t>
+          <t>2022-02-19 09:36:00.000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
+          <t>seagreen</t>
         </is>
       </c>
     </row>
@@ -3466,27 +3466,27 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Fire Weather Watch</t>
+          <t>Flood Watch</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>FW.A</t>
+          <t>FL.A</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>KMAF</t>
+          <t>KPBZ</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2022-02-16 17:00:00.000</t>
+          <t>2022-02-18 19:30:00.000</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>navajowhite</t>
+          <t>seagreen</t>
         </is>
       </c>
     </row>
@@ -3496,27 +3496,27 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Fire Weather Watch</t>
+          <t>Gale Warning</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>FW.A</t>
+          <t>GL.W</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>KMAF</t>
+          <t>KGRR</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2022-02-16 17:00:00.000</t>
+          <t>2022-02-18 18:00:00.000</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>navajowhite</t>
+          <t>#dda0dd</t>
         </is>
       </c>
     </row>
@@ -3526,27 +3526,27 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Fire Weather Watch</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>FW.A</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>KMAF</t>
+          <t>KLWX</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2022-02-16 17:00:00.000</t>
+          <t>2022-02-19 18:00:00.000</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>navajowhite</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -3556,27 +3556,27 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Fire Weather Watch</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>FW.A</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>KMAF</t>
+          <t>KLWX</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2022-02-16 17:00:00.000</t>
+          <t>2022-02-19 18:00:00.000</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>navajowhite</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -3586,27 +3586,27 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>High Wind Watch</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>HW.A</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>KMAF</t>
+          <t>KLWX</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2022-02-16 15:00:00.000</t>
+          <t>2022-02-19 18:00:00.000</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>darkgoldenrod</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -3616,27 +3616,27 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>High Wind Watch</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>HW.A</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>KMAF</t>
+          <t>KLWX</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2022-02-16 15:00:00.000</t>
+          <t>2022-02-19 18:00:00.000</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>darkgoldenrod</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -3656,12 +3656,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>KGRB</t>
+          <t>KBUF</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 06:00:00.000</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3676,27 +3676,27 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>KGRB</t>
+          <t>KBUF</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 06:00:00.000</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -3706,27 +3706,27 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Fire Weather Watch</t>
+          <t>Gale Watch</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>FW.A</t>
+          <t>GL.A</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>KABQ</t>
+          <t>KBUF</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2022-02-16 18:00:00.000</t>
+          <t>2022-02-19 06:00:00.000</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>navajowhite</t>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -3736,27 +3736,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Gale Watch</t>
+          <t>High Wind Watch</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>GL.A</t>
+          <t>HW.A</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>KLOT</t>
+          <t>KTFX</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2022-02-16 00:00:00.000</t>
+          <t>2022-02-19 09:00:00.000</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>darkgoldenrod</t>
         </is>
       </c>
     </row>
@@ -3766,1767 +3766,27 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Gale Warning</t>
+          <t>High Wind Watch</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>GL.W</t>
+          <t>HW.A</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>KLOT</t>
+          <t>KTFX</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2022-02-16 02:00:00.000</t>
+          <t>2022-02-19 16:00:00.000</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>#dda0dd</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Gale Watch</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>GL.A</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>KLOT</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Gale Warning</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>GL.W</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>KLOT</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>2022-02-16 02:00:00.000</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>#dda0dd</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Small Craft Advisory</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>SC.Y</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>KPQR</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>2022-02-16 10:00:00.000</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>thistle</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Small Craft Advisory</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>SC.Y</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>KSEW</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>thistle</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Hazardous Seas Watch</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>SE.A</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>KMFR</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>darkslateblue</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Hazardous Seas Warning</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>SE.W</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>KMFR</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>thistle</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Hazardous Seas Warning</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>SE.W</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>KMFR</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>thistle</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Small Craft Advisory</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>SC.Y</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>KTAE</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>2022-02-16 03:00:00.000</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>thistle</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Gale Warning</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>GL.W</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>KEKA</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>#dda0dd</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Gale Warning</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>GL.W</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>KEKA</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>#dda0dd</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>High Rip Current Risk</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>RP.S</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>KMOB</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>turquoise</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Small Craft Advisory</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>SC.Y</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>KMOB</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>2022-02-16 03:00:00.000</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>thistle</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Wind Chill Advisory</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>WC.Y</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>PAFG</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>2022-02-16 03:00:00.000</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>paleturquoise</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Small Craft Advisory</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>SC.Y</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>TJSJ</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>2022-02-16 18:00:00.000</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>thistle</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Gale Warning</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>GL.W</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>KBOX</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>2022-02-16 18:00:00.000</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>#dda0dd</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Gale Watch</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>GL.A</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>KBOX</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>2022-02-16 18:00:00.000</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Winter Weather Advisory</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>WW.Y</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>PAFC</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>2022-02-16 09:00:00.000</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>#7b68ee</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Winter Weather Advisory</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>WW.Y</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>PAFC</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>2022-02-16 06:00:00.000</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>#7b68ee</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Small Craft Advisory</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>SC.Y</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>KPQR</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>2022-02-16 10:00:00.000</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>thistle</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Winter Weather Advisory</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>WW.Y</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>PAFC</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>2022-02-16 12:00:00.000</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>#7b68ee</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Winter Weather Advisory</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>WW.Y</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>PAFC</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>2022-02-16 12:00:00.000</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>#7b68ee</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Flood Watch</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>FA.A</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>KBUF</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>2022-02-17 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>seagreen</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Gale Warning</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>GL.W</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>KMKX</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>#dda0dd</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Gale Warning</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>GL.W</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>KMKX</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>#dda0dd</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Gale Warning</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>GL.W</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>KMKX</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>#dda0dd</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Gale Warning</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>GL.W</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>KMQT</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>#dda0dd</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Gale Watch</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>GL.A</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>KCAR</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>2022-02-16 21:00:00.000</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Small Craft Advisory</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>SC.Y</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>KMOB</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>2022-02-16 03:00:00.000</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>thistle</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Gale Watch</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>GL.A</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>KCAR</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>2022-02-16 21:00:00.000</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Gale Warning</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>GL.W</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>KGYX</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>2022-02-16 18:00:00.000</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>#dda0dd</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Gale Warning</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>GL.W</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>KGYX</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>2022-02-16 18:00:00.000</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>#dda0dd</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Gale Warning</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>GL.W</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>KLOT</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>2022-02-16 02:00:00.000</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>#dda0dd</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Gale Warning</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>GL.W</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>KLOT</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>2022-02-16 02:00:00.000</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>#dda0dd</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Flood Watch</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>FA.A</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>KBUF</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>2022-02-17 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>seagreen</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Flood Watch</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>FA.A</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>KLOT</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>2022-02-17 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>seagreen</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Gale Warning</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>GL.W</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>KIWX</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>#dda0dd</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Gale Warning</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>GL.W</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>KAPX</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>#dda0dd</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Gale Warning</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>GL.W</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>KAPX</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>2022-02-16 03:00:00.000</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>#dda0dd</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Gale Warning</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>GL.W</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>KGRB</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>#dda0dd</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Flood Watch</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>FA.A</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>KILX</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>2022-02-17 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>seagreen</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Flood Watch</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>FA.A</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>KIND</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>2022-02-17 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>seagreen</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Small Craft Advisory</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>SC.Y</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>KSEW</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>thistle</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Gale Warning</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>GL.W</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>KGRR</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>#dda0dd</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Flood Watch</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>FA.A</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>KIWX</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>2022-02-17 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>seagreen</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Gale Warning</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>GL.W</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>KEKA</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>#dda0dd</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Gale Warning</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>GL.W</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>KEKA</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>#dda0dd</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>High Wind Watch</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>HW.A</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>KMAF</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>2022-02-16 12:00:00.000</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
           <t>darkgoldenrod</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Hazardous Seas Watch</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>SE.A</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>KMFR</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>darkslateblue</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Hazardous Seas Watch</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>SE.A</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>KMFR</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>darkslateblue</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Gale Watch</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>GL.A</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>KEKA</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Winter Weather Advisory</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>WW.Y</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>KCYS</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>2022-02-16 09:00:00.000</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>#7b68ee</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Winter Weather Advisory</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>WW.Y</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>KCYS</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>2022-02-16 03:00:00.000</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>#7b68ee</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Winter Weather Advisory</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>WW.Y</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>KCYS</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>2022-02-16 06:00:00.000</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>#7b68ee</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Winter Weather Advisory</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>WW.Y</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>KRIW</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>#7b68ee</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Winter Weather Advisory</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>WW.Y</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>KRIW</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>2022-02-16 00:00:00.000</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>#7b68ee</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Winter Weather Advisory</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>WW.Y</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>KRIW</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>2022-02-16 01:00:00.000</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>#7b68ee</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Winter Weather Advisory</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>WW.Y</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>KRIW</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>2022-02-16 01:00:00.000</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>#7b68ee</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Winter Weather Advisory</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>WW.Y</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>KRIW</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>2022-02-16 01:00:00.000</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>#7b68ee</t>
         </is>
       </c>
     </row>
